--- a/Kimutatas.xlsx
+++ b/Kimutatas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
   <si>
     <t>Dátum 1</t>
   </si>
@@ -69,18 +69,12 @@
     <t>Prev Id</t>
   </si>
   <si>
-    <t>2017. 10. 12. 0:00:00</t>
-  </si>
-  <si>
     <t>havi</t>
   </si>
   <si>
     <t>Csoportos átutalás jóváírás</t>
   </si>
   <si>
-    <t>2017. 10. 09. 0:00:00</t>
-  </si>
-  <si>
     <t>Vásárlás belföldi kereskedőnél</t>
   </si>
   <si>
@@ -181,6 +175,45 @@
   </si>
   <si>
     <t>F122</t>
+  </si>
+  <si>
+    <t>Bankon belüli eseti jóváírás   
+FRISS ZSUZSANNA
+Közlemény: Átutalás
+Értéknap: 2017.11.02</t>
+  </si>
+  <si>
+    <t>10755678-56781432 HUF</t>
+  </si>
+  <si>
+    <t>JÓVÁÍRÁS   SNKFHH8004593132
+HS-Számlavezetési díjkedvezmény
+ONLHSFHH8LAKSAG           H00D
+Értéknap: 2017.11.02</t>
+  </si>
+  <si>
+    <t>Cég</t>
+  </si>
+  <si>
+    <t>Eladott mennyiség</t>
+  </si>
+  <si>
+    <t>Vásárolt mennyiség</t>
+  </si>
+  <si>
+    <t>Nyereség</t>
+  </si>
+  <si>
+    <t>Nyereség %-ban</t>
+  </si>
+  <si>
+    <t>Tőzsde szimbolum</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>redizar</t>
   </si>
 </sst>
 </file>
@@ -190,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/\ mm/\ dd/;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,16 +306,47 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -290,11 +354,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -311,7 +386,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -332,7 +406,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -351,6 +424,50 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -808,8 +925,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Teljes_egyenlegek" displayName="Teljes_egyenlegek" ref="A1:Q25" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Teljes_egyenlegek" displayName="Teljes_egyenlegek" ref="A1:Q27" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q27"/>
   <tableColumns count="17">
     <tableColumn id="6" name="Dátum 1" dataDxfId="16"/>
     <tableColumn id="3" name="Dátum 2" dataDxfId="15"/>
@@ -1120,16 +1237,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1191,928 +1308,1283 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43061</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="24">
+        <v>43020</v>
+      </c>
+      <c r="C2" s="6">
         <v>48600</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7">
         <v>48600</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>48600</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7">
         <v>48600</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>48600</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="10" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="10">
+        <v>1.04050668676704E+23</v>
+      </c>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>43061</v>
+      </c>
+      <c r="B3" s="23">
+        <v>43017</v>
+      </c>
+      <c r="C3" s="14">
+        <v>144104</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12">
+        <v>95504</v>
+      </c>
+      <c r="H3" s="12">
+        <v>95504</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12">
+        <v>95504</v>
+      </c>
+      <c r="K3" s="12">
+        <v>95504</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="16">
+        <v>1.04050668676704E+23</v>
+      </c>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>43061</v>
+      </c>
+      <c r="B4" s="23">
+        <v>43017</v>
+      </c>
+      <c r="C4" s="14">
+        <v>143628</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
+        <v>-476</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12">
+        <v>-476</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12">
+        <v>-476</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="11">
+      <c r="O4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="16">
         <v>1.04050668676704E+23</v>
       </c>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>43061</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B5" s="23">
+        <v>43017</v>
+      </c>
+      <c r="C5" s="14">
+        <v>142128</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
+        <v>-1500</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12">
+        <v>-1500</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12">
+        <v>-1500</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16">
-        <v>144104</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13">
-        <v>95504</v>
-      </c>
-      <c r="H3" s="13">
-        <v>95504</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13">
-        <v>95504</v>
-      </c>
-      <c r="K3" s="13">
-        <v>95504</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="18">
+      <c r="O5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="16">
         <v>1.04050668676704E+23</v>
       </c>
-      <c r="Q3" s="18"/>
-    </row>
-    <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>43061</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="16">
-        <v>143628</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13">
-        <v>-476</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13">
-        <v>-476</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13">
-        <v>-476</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="18">
-        <v>1.04050668676704E+23</v>
-      </c>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="C6" s="19">
+        <v>2408865</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20">
+        <v>-140</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20">
+        <v>-140</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20">
+        <v>-140</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>43061</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="16">
-        <v>142128</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13">
-        <v>-1500</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13">
-        <v>-1500</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13">
-        <v>-1500</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="17" t="s">
+      <c r="B7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2408261</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20">
+        <v>-604</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20">
+        <v>-604</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20">
+        <v>-604</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="18">
-        <v>1.04050668676704E+23</v>
-      </c>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="O7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>43061</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2407589</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20">
+        <v>-672</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20">
+        <v>-672</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20">
+        <v>-672</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="21">
-        <v>2408865</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22">
-        <v>-140</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22">
-        <v>-140</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22">
-        <v>-140</v>
-      </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="23" t="s">
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>43061</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2406889</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20">
+        <v>-700</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20">
+        <v>-700</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20">
+        <v>-700</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="21"/>
+    </row>
+    <row r="10" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>43061</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2406147</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20">
+        <v>-742</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20">
+        <v>-742</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20">
+        <v>-742</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>43061</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2405402</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20">
+        <v>-745</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20">
+        <v>-745</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20">
+        <v>-745</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="21"/>
+    </row>
+    <row r="12" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>43061</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2404270</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20">
+        <v>-1132</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20">
+        <v>-1132</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20">
+        <v>-1132</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="13" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>43061</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2376270</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20">
+        <v>-28000</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20">
+        <v>-28000</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20">
+        <v>-28000</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="21"/>
+    </row>
+    <row r="14" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>43061</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2375988</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20">
+        <v>-282</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20">
+        <v>-282</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20">
+        <v>-282</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="21"/>
+    </row>
+    <row r="15" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>43061</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2375428</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20">
+        <v>-560</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20">
+        <v>-560</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20">
+        <v>-560</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="21"/>
+    </row>
+    <row r="16" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>43061</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2477437</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20">
+        <v>102009</v>
+      </c>
+      <c r="H16" s="20">
+        <v>102009</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
+        <v>102009</v>
+      </c>
+      <c r="K16" s="20">
+        <v>102009</v>
+      </c>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="21"/>
+    </row>
+    <row r="17" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>43062</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2508437</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20">
+        <v>31000</v>
+      </c>
+      <c r="H17" s="20">
+        <v>31000</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20">
+        <v>31000</v>
+      </c>
+      <c r="K17" s="20">
+        <v>31000</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="21"/>
+    </row>
+    <row r="18" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>43068</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20">
+        <v>212156</v>
+      </c>
+      <c r="H18" s="20">
+        <v>212156</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20">
+        <v>212156</v>
+      </c>
+      <c r="K18" s="20">
+        <v>212156</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>43068</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="21"/>
+    </row>
+    <row r="20" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>43068</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20">
+        <v>-199</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20">
+        <v>-199</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20">
+        <v>-199</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="21"/>
+    </row>
+    <row r="21" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>43068</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20">
+        <v>-50</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20">
+        <v>-50</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20">
+        <v>-50</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="22" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>43069</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20">
+        <v>-6963</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20">
+        <v>-6963</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20">
+        <v>-6963</v>
+      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="21"/>
+    </row>
+    <row r="23" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>43069</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20">
+        <v>-4187</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20">
+        <v>-4187</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20">
+        <v>-4187</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="21"/>
+    </row>
+    <row r="24" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>43069</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20">
+        <v>8000</v>
+      </c>
+      <c r="H24" s="20">
+        <v>8000</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20">
+        <v>8000</v>
+      </c>
+      <c r="K24" s="20">
+        <v>8000</v>
+      </c>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="21"/>
+    </row>
+    <row r="25" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>43122</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20">
+        <v>765</v>
+      </c>
+      <c r="H25" s="20">
+        <v>765</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20">
+        <v>765</v>
+      </c>
+      <c r="K25" s="20">
+        <v>765</v>
+      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="21"/>
+    </row>
+    <row r="26" spans="1:17" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>43136</v>
+      </c>
+      <c r="B26" s="25">
+        <v>43041</v>
+      </c>
+      <c r="C26" s="19">
+        <v>5000</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20">
+        <v>10</v>
+      </c>
+      <c r="H26" s="20">
+        <v>10</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20">
+        <v>10</v>
+      </c>
+      <c r="K26" s="20">
+        <v>10</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26" s="21"/>
+    </row>
+    <row r="27" spans="1:17" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>43136</v>
+      </c>
+      <c r="B27" s="25">
+        <v>43041</v>
+      </c>
+      <c r="C27" s="19">
+        <v>5470</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20">
+        <v>470</v>
+      </c>
+      <c r="H27" s="20">
+        <v>470</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20">
+        <v>470</v>
+      </c>
+      <c r="K27" s="20">
+        <v>470</v>
+      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>43061</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="23"/>
-    </row>
-    <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="C28" s="19">
+        <v>1407589</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20">
+        <v>-672</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20">
+        <v>-672</v>
+      </c>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20">
+        <v>-672</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="21"/>
+    </row>
+    <row r="29" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>43061</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="21">
-        <v>2408261</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22">
-        <v>-604</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22">
-        <v>-604</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22">
-        <v>-604</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="23"/>
-    </row>
-    <row r="8" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="C29" s="19">
+        <v>1306889</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20">
+        <v>-700</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20">
+        <v>-700</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20">
+        <v>-700</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="21"/>
+    </row>
+    <row r="30" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>43061</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="21">
-        <v>2407589</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22">
-        <v>-672</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22">
-        <v>-672</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22">
-        <v>-672</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="23"/>
-    </row>
-    <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="C30" s="19">
+        <v>1410147</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20">
+        <v>-742</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20">
+        <v>-742</v>
+      </c>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20">
+        <v>-742</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="21"/>
+    </row>
+    <row r="31" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <v>43061</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="21">
-        <v>2406889</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22">
-        <v>-700</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22">
-        <v>-700</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22">
-        <v>-700</v>
-      </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="C31" s="19">
+        <v>1502002</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20">
+        <v>-745</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20">
+        <v>-745</v>
+      </c>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20">
+        <v>-745</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="21"/>
+    </row>
+    <row r="32" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
         <v>43061</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="21">
-        <v>2406147</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22">
-        <v>-742</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22">
-        <v>-742</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22">
-        <v>-742</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="23"/>
-    </row>
-    <row r="11" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="C32" s="19">
+        <v>1507542</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20">
+        <v>-1132</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20">
+        <v>-1132</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20">
+        <v>-1132</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="21"/>
+    </row>
+    <row r="33" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <v>43061</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B33" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1376270</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20">
+        <v>-28000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20">
+        <v>-28000</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20">
+        <v>-28000</v>
+      </c>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="21">
-        <v>2405402</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22">
-        <v>-745</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22">
-        <v>-745</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22">
-        <v>-745</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="23"/>
-    </row>
-    <row r="12" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="O33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
         <v>43061</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B34" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1512988</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20">
+        <v>-282</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20">
+        <v>-282</v>
+      </c>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20">
+        <v>-282</v>
+      </c>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="21">
-        <v>2404270</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22">
-        <v>-1132</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22">
-        <v>-1132</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22">
-        <v>-1132</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="23"/>
-    </row>
-    <row r="13" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="O34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
         <v>43061</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="21">
-        <v>2376270</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22">
-        <v>-28000</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22">
-        <v>-28000</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22">
-        <v>-28000</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="23"/>
-    </row>
-    <row r="14" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>43061</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="21">
-        <v>2375988</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22">
-        <v>-282</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22">
-        <v>-282</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22">
-        <v>-282</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="23"/>
-    </row>
-    <row r="15" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>43061</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="21">
-        <v>2375428</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22">
+      <c r="C35" s="19">
+        <v>1125889</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20">
         <v>-560</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20">
         <v>-560</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22">
+      <c r="J35" s="20"/>
+      <c r="K35" s="20">
         <v>-560</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="23"/>
-    </row>
-    <row r="16" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>43061</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="21">
-        <v>2477437</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22">
-        <v>102009</v>
-      </c>
-      <c r="H16" s="22">
-        <v>102009</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22">
-        <v>102009</v>
-      </c>
-      <c r="K16" s="22">
-        <v>102009</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="23"/>
-    </row>
-    <row r="17" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>43062</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="21">
-        <v>2508437</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22">
-        <v>31000</v>
-      </c>
-      <c r="H17" s="22">
-        <v>31000</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22">
-        <v>31000</v>
-      </c>
-      <c r="K17" s="22">
-        <v>31000</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="23"/>
-    </row>
-    <row r="18" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>43068</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22">
-        <v>212156</v>
-      </c>
-      <c r="H18" s="22">
-        <v>212156</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22">
-        <v>212156</v>
-      </c>
-      <c r="K18" s="22">
-        <v>212156</v>
-      </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="23"/>
-    </row>
-    <row r="19" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>43068</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="21">
-        <v>0</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22">
-        <v>0</v>
-      </c>
-      <c r="H19" s="22">
-        <v>0</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22">
-        <v>0</v>
-      </c>
-      <c r="K19" s="22">
-        <v>0</v>
-      </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="23"/>
-    </row>
-    <row r="20" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>43068</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22">
-        <v>-199</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22">
-        <v>-199</v>
-      </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22">
-        <v>-199</v>
-      </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="23"/>
-    </row>
-    <row r="21" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <v>43068</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22">
-        <v>-50</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22">
-        <v>-50</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22">
-        <v>-50</v>
-      </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="23"/>
-    </row>
-    <row r="22" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>43069</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22">
-        <v>-6963</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22">
-        <v>-6963</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22">
-        <v>-6963</v>
-      </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q22" s="23"/>
-    </row>
-    <row r="23" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>43069</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22">
-        <v>-4187</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22">
-        <v>-4187</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22">
-        <v>-4187</v>
-      </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q23" s="23"/>
-    </row>
-    <row r="24" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <v>43069</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22">
-        <v>8000</v>
-      </c>
-      <c r="H24" s="22">
-        <v>8000</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22">
-        <v>8000</v>
-      </c>
-      <c r="K24" s="22">
-        <v>8000</v>
-      </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="23"/>
-    </row>
-    <row r="25" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <v>43122</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="21">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22">
-        <v>765</v>
-      </c>
-      <c r="H25" s="22">
-        <v>765</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22">
-        <v>765</v>
-      </c>
-      <c r="K25" s="22">
-        <v>765</v>
-      </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="P25" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q25" s="23"/>
-    </row>
-    <row r="26" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2125,12 +2597,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="38"/>
+      <c r="L1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>43061</v>
+      </c>
+      <c r="B2" s="33">
+        <v>43020</v>
+      </c>
+      <c r="C2" s="34">
+        <v>48600</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="35">
+        <v>48600</v>
+      </c>
+      <c r="H2" s="35">
+        <v>48600</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35">
+        <v>48600</v>
+      </c>
+      <c r="K2" s="35">
+        <v>48600</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>43061</v>
+      </c>
+      <c r="B3" s="27">
+        <v>43017</v>
+      </c>
+      <c r="C3" s="28">
+        <v>144104</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29">
+        <v>95504</v>
+      </c>
+      <c r="H3" s="29">
+        <v>95504</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29">
+        <v>95504</v>
+      </c>
+      <c r="K3" s="29">
+        <v>95504</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>43061</v>
+      </c>
+      <c r="B4" s="33">
+        <v>43020</v>
+      </c>
+      <c r="C4" s="34">
+        <v>48600</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="35">
+        <v>48600</v>
+      </c>
+      <c r="H4" s="35">
+        <v>48600</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35">
+        <v>48600</v>
+      </c>
+      <c r="K4" s="35">
+        <v>48600</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="36"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
